--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/40_İstanbul_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/40_İstanbul_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{428D178C-48B0-47E0-8D85-9D2CF3C31968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B986AE85-0923-4DC0-AA9F-BDE542122D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{9DFD50E3-45E0-4081-B0BD-F0859797CB65}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{4A302CE9-3853-4C38-B6FA-54C9B2DADE11}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8D0936A2-58F1-4474-A77E-4092E33B1986}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2C6F527D-87AB-49C9-BBFA-5D94DB401447}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{50DD3BF8-8C64-4018-B029-96462293D14E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{22ABCC69-6AFF-4C4F-AC21-1355CFB17626}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D59E827F-1D8B-4909-BCAE-CED7BF691E07}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{2C17B5AF-B1A1-4E02-B266-AB2FDFF80CF0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4360E795-C9E2-4D0E-BBCA-8E01FBA8C638}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{334EFAF7-A6A9-4A91-AD07-3442B4DA7210}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BC17CF3D-D885-4ECD-B945-AAB4960886E6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{28F55BCF-934C-4E37-ABB6-ABE37B1830EF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B61777BB-0D0B-406C-9CCC-8E7F99DB8667}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5456366C-1D9F-4BA8-A342-87D5B6CCDA72}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{EBEB2083-7093-4D65-B433-374DA3AEA3B3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F238FF93-ED7C-4428-AD5A-780CA76C58DA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BA7A2B-7198-4603-99BB-662DB102C1A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC904A6-228D-48DC-B7CD-AAA4A9896FA9}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2646,18 +2646,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D158D63-6FB5-420A-B7A4-EA743CED4A55}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37122A02-57D1-4BD3-B693-226E6E4E55D6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D7CAAD25-AB5F-46CC-8CC5-BAA023AB9E8F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4F563E04-FE1E-4C75-A265-112FA4BFEF14}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{51167409-C6E1-435B-83C6-2128FFB4C6F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F079EAC9-C181-4DA6-8E5A-3DD9A8AAABF7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F1BA9E3-1AC4-468F-B8C9-828B0BBFACDF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64C33F56-5B0E-4156-A3ED-C7F37E572DE4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A191BDB-382D-4812-80CC-CBAFC0EAC1E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A25133B5-B552-4955-8263-1388DD53C376}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D70691CD-3273-46F9-8E6A-C228F975AA08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CEF6D11-5313-46E4-AED1-6708B9CDAB0C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFCB8B10-2AC9-472D-81E0-30BDEFE65A3D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5DDBB91-9ADA-4F24-B215-BC06BC7CB672}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2EFBB6A4-700F-40B5-9E86-60C8F1D1D729}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F1729F1D-5A2E-4C2E-A7DB-293446837A9C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{314485EE-04BB-4E3E-B0A8-E21908109A5D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{56D0A6AE-3AEA-4646-ADE5-18C4E71B4F6E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E34C1194-D65B-4655-AE0E-DED489039D2F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F062D76E-4C93-4DF4-981E-D01B59705C66}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72D70F00-12B1-439D-A3A6-0FDBF0B1D3A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B53A991-664A-4AC8-98D7-FA8F994F5907}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FAF1AB2-CA1C-466B-9289-63AA132050AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96653FCB-7D2B-4EC6-A26C-991AB987223F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2670,7 +2670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52212F7-B88A-4404-A991-0E379591371F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315D933F-6B1B-4CBE-AD38-8F9DFD00C66B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3965,18 +3965,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CE074CA-6F3D-404B-85C1-FFFDA6A899FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9221F199-6E5D-4550-991C-64610ABE17D2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67B7D0F9-7AAE-43D1-9D43-CFEFBE4204A7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31F26DB5-FF23-4557-94CF-5BFAD9B7DCC6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F9363253-97D7-46F3-8130-FE38948C7ECC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5C2DFA3-BCB6-4086-A3A0-C30B0A0C2ED5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5F73CDA-DF52-4A13-906C-C8BE3D1B952A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{585D7FBC-6005-43C0-9F83-728A9F3C0586}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6EA93752-402D-4B01-81F8-47B69DD34D04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{510B0626-F3FF-4FF8-B479-DB01E0D003A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5E7F5B7-C7C3-4FFF-BFA0-2DAA3F8A1CAE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4A5EE27-0FBD-4BDF-9012-DEA3EA8FA9FA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2FA4C371-960B-49F5-A716-F7972D4B388C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D6AA4A3-6B92-4DA2-A8D0-4A74153ABC16}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE84653B-5912-4B1B-A937-C22D5FF4678A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19977C04-04C2-439E-B0AE-350847215037}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{806B213D-5E6C-41CB-AC80-260774612942}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C80FC7C9-B4DB-4028-87B3-080990F9AE74}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3482E3F-58E5-4AC4-9130-6FB1836E3ACA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C328278-DB78-4DFA-B32A-1DC7B47899B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A15509A9-9BB3-4483-9F44-B5ECC6389088}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CBA755D6-5E68-4B84-AF92-4A08209C00A6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2D2A08A-39B2-4DE5-93BD-0053438277FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC00AD11-1594-4FE0-BAC1-73001DE6003F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3989,7 +3989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371EC62D-49D0-4319-8393-554CC6557C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACDE6B6-E058-4795-A5ED-AC705F1539C1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5284,18 +5284,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{210C2DCB-7FA6-45F2-BF0B-F710A3B28D84}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB3BD1C1-5F63-4AB8-B355-99D184F6D33E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EFC7BA65-A652-4135-BF11-844F58355C26}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{186B2389-6B84-4FF0-BE06-4F58F4032B15}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C2C66B12-7808-47AE-A6A8-B2957E6D842E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A2CD5F9-1110-46ED-8EDD-01154BEFB41C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{751D6BB7-BE24-4F7D-A01A-320966209E58}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68837350-B074-487B-B979-F211CDB5692B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4FE4335F-E095-4A0A-BD59-CF81E1051C8B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CAE89FB8-BBE5-44CE-B7DB-C310AFB62AA1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB0B838C-1A19-4A2B-B98A-EC6D2B1CCBE6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7DBABE4-0B2F-480D-AE7E-17EF124DD9E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD8823E1-73AF-47F3-B4BD-53F7A2583C9F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{083BAD06-1007-4E9A-A714-72B8B9B6EE21}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA38D58A-7997-42F1-B3BF-A8275B346F26}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5421D466-1F7E-4E6C-A33E-E3D9EE8C49AB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D2E43D78-0902-4B69-81B3-23D74B4A330F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E263234-309B-4B46-9020-29375AFB5F07}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A54F477-DB0B-4C16-9531-F0EA73370744}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A7BCAB4E-8828-400C-AC98-528989C031B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F01EBB22-EBC5-4ADE-B3FA-15CADFA61471}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{236F22F9-7BAF-4FFD-9B92-712F594ABD0A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55A18FE9-61DE-4E29-B696-06BAED2A9446}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA7C00A5-AFEF-4F0C-AB25-695789270AD8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5308,7 +5308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6408CA32-D20A-420B-9E3C-CF2DF3E5D2C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7AC8C6-8EC5-4D32-90A6-104EFDB997FD}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6602,18 +6602,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AF14AB5-DCEE-4FCF-830E-B2C5FD66C65D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2E2CEA2-8FE8-4162-BBAD-CAF9A3394A3D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9BA6EE77-A36E-4A9B-B6E8-738DC7FC7524}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6487D81-DD70-42A7-8EB2-5EF04D051D85}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{01C9014A-87BF-4E08-86F3-47968A868B82}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7FCB7F75-1897-4AA2-83EF-44ECB96B9591}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71C83E15-A0E6-4B19-A4D3-45D0EFD9CF1C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B2B1BAE-D60A-4258-A1DA-660DC11B416D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99E19D2E-8692-4C1D-A645-9BB7B3DC3AD4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E11BB03-B618-405E-BA59-319DEB6B6A0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D0F6E6F-55D7-4585-9FC6-CEE2B85C943F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4DC7825-A6F7-4C28-9EAA-F4C56DC5AF9B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F486FFEA-820A-43F2-AE2D-9AB2833DA26A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B09E3A5A-54FA-494D-8588-05A92C3B8E8E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{539A7510-E351-4BC2-B699-9CA79DFB174F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C7C9395D-254D-4EBD-A522-7B0C9D1F7B0C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{345239DE-AC3E-4BC4-8FEF-74BAEF33A7BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BA35AD7-0746-494E-A44F-5C4AACE42734}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C76A7432-D588-4B46-A299-8260277AD4E5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FFB73DAC-7134-47DD-A8FD-23A5C5A3BE19}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E764D784-E9EA-41B1-B8A7-91E0389BC8D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{896464D7-204E-451A-A616-5C24B886047B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7FF4661-3220-452C-9D9F-1DC96D70D9AD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8D44357-7167-46FE-9FE5-3735CF5DE223}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6626,7 +6626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62EEFAB-5BF5-43A9-B576-5102BEB72DE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9790FF-2D45-439B-8D3F-15CD3F0F4410}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7941,18 +7941,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D46FCB60-5FC6-40D0-80E8-CBC5B6890EED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5061C87-0009-4C3A-BED2-E5274F444193}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5C517721-DB78-4B72-92AA-4137F9C37094}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C7FB9C7-2A45-4880-9D9F-E7226DDE7726}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{73B0B1DB-43D0-4F32-9207-272F39EFA22A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE45169A-4FBC-4602-8F96-063F6C262463}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C7BB021-1C8A-4134-8293-2DFF37D1B414}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B5DA630-FF50-42C8-9ACA-DBF3D8653CA5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CF5B52C-5D34-4207-BEBA-7137862FD7AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F32B43A6-171E-407A-8244-E8F0C67D277A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A66AAA36-A509-489C-A4CA-2877EA66A391}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{90AC55B4-F9D5-4AD1-A800-D553285D130E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9913EA7F-BE96-4EEF-BEF8-86C959E4A81C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76135A7A-7CFA-420F-A695-1FC27BC8CF9A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EFE0E578-BF64-4DEE-975C-7FDEFFC8CB69}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6138B6D3-0DE1-4771-A34F-3852A40B0D13}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6052DA0D-9D9F-4567-B0DC-0D28ECBF8B14}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF4BF4AB-0944-48F7-AEF9-911430899AFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D90BC1D6-A553-4462-BBAE-CD351A999B6C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6A7D86A4-6994-48C8-B50D-B798F15BFA6C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{201AD975-9B95-4A68-AE23-2AF2AA759C71}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36C07122-7B95-47C6-A260-12487B2A2BA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E232B61-562E-4436-B2A5-7E9FF546D66F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED0B7886-C4B4-4012-B1D6-7048ECD954B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7965,7 +7965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024412CA-226B-48CE-A6F1-98D1E6918CE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B791EC9-243B-48ED-A13F-C5B7E834CBFF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9280,18 +9280,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{563FC447-38BB-4B1F-99F2-DA76D50CF6B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E28B8A6-16F9-4C6E-8629-CF6A6933C81D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9032E481-D629-44B1-A53F-8C2042D77C3B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CE46FF77-5EEF-40EE-9D36-E36B84B67788}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6A3B1F1A-43FF-46E1-A51A-92F1F4113920}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{800B65CB-DD9A-43F3-80AE-08EFF277909B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23135B38-6686-4FCB-9728-ECBB00B6A6B9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23BD2867-393B-4972-82D9-F122388C5680}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E9693A9-FE7C-4493-89FB-8B5A2EDD33E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DF36AC1-FF84-4B8E-AA29-EEACD92043BD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F305545-874D-41EE-B810-8ED9536AE84C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85B42A0F-BDB3-47EC-BE6C-DE177B39E0E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6EEF022B-2422-4D73-BCBF-5DBB8E03BC54}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1C25CB6-8102-42DE-A9F4-2F6BBA001F5E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B08A4B46-F4C7-47A0-95E5-D2EF1CB84818}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8781D11-E8B5-45A1-95EF-BE5CF861482F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9A94AC01-1CA8-4FD1-981F-E9FAE08ACBCC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A73B222-8139-4C5C-9336-C96856466C6C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17E13B1E-91B7-415C-893C-4C8F708B353A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08A96C30-C9D4-472B-9795-9E03FBB3B4A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E40005AA-7E7D-41C5-ADEF-AFC585B5BF86}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B23D1FE9-EACD-4F95-B03E-D7641815882C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCDBE328-F033-4D1D-BE7B-9C290FD88133}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA0466FD-4302-4FE2-9E18-2CE5935E47B7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9304,7 +9304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B8805-A4A2-4B19-BAF8-03650B9E2BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5316AF71-6346-47F5-BBBA-4AF79DA68EDF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10619,18 +10619,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C663035A-D1E1-466C-A6FE-893A6BF83499}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E209777-6124-48C8-A9DC-FE08D781C514}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1AFA7CB7-8BE4-47F4-B2D3-BE0F90D600C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B373822D-8F50-4693-BC31-AEBBBBC9D97D}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C4B23E95-B343-4D15-B2EF-817A98CBDAD7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20E9CE2D-0BA0-495F-A696-0829BABF0877}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4A49021-003E-46F2-9DB5-FC008F73799D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{373752D6-4A6A-4378-AE52-4AA894E58F4D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2455958-7E7A-4485-93CD-9A1D19A634E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAD3E702-F551-45A7-A320-B7007D3A8E35}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24F4CA6F-C384-4C2D-B4FB-84CC794C7AB8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DBA03E8-D8AA-42A2-A18F-2A1598D17513}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DB24558-7176-4E51-86DF-2F0B0BDDEA57}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15F867F0-037F-4C07-81CE-4635D7D0DE08}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EFA9C571-1BCA-4C8A-A795-ACEFA9C7555A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3C4308D-352B-4A76-85A6-8E7952BAD629}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B3552D84-9886-44DD-9E15-34FEF3BA22AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C20DAED-5CE7-4F7C-9D21-9E7D4E7AA193}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BAFE8D6-5DF3-4128-BFE9-F5E0847ACB83}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6AB2E431-4302-46AD-A754-6E0E05A8F625}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D606E80B-F6F1-41D0-BD50-BBBC78AC797C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{911A5850-A417-4DA6-9B8E-7E2F9E6EA7DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{896D5B31-FEB2-4F68-8137-9938C9686A63}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8E5AAA0-D1D9-4049-8261-3577A1CDF4BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10643,7 +10643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71491623-474D-47C7-8D33-B327CC5CF6E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B7FE52-A028-43DD-A203-C4BC453EC982}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11958,18 +11958,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1153184-6B68-4739-9034-235927A7EDD1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE3B748B-BF28-4744-9290-9FABE9D97C48}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{270FE514-38BA-46EE-A994-AD32D8D7F9B7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3E97B6B7-D6F6-4F75-81CC-B6FA7DFB3B93}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6AE9AEDE-BEB5-4333-8374-D95002F43E95}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68B61A06-3CED-4182-9E77-69ADF493914A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCA42029-39F9-4380-9E0A-2215EF1A24C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86462F97-34C8-4BA3-A663-687AFF34CAE9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93433A85-AB60-4014-A149-40F8D4EB18B1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E275829-B9F8-482A-8A5D-05542C72E0E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3004BE4-0CEB-4808-B1A7-60076F3AB08C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2D67248-4623-4BC5-8311-9FA077335F89}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4A8523F-BE6E-4D64-9DE8-67EFEEFC1721}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5E2F2A6-47E4-4C20-8178-5EDEDAFB253B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9C424D89-67A6-48CB-9F8A-EAA2E631118B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{292B26A5-0CB3-467E-8207-55368B433D9A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{486F288F-A763-4FE7-BA09-D6396AD63379}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B4FE60A-7F32-4F33-9EB6-DB807DBBFD9C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E6C6574-2A5F-4F8B-B5EF-B17B0D7509DB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF1E94CF-0946-45E0-AABB-653BD20A58FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{731A94C7-F440-4839-B007-66202142BAB6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1C8D3CA-D64F-4FF3-A1E0-302E10AB5AEF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C2A31DE-87E0-4FB5-A6EB-8E00065DA97E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54B04F20-7273-4532-B07E-24B91018D454}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11982,7 +11982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4061C76C-B755-4BC8-AE60-10054E53D3A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79A5940-292E-403B-AB40-A65BB7673C20}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13295,18 +13295,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{09634633-2E05-4B94-9698-25F54778AD9F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5256AD35-FF56-4685-B093-BCF0291FE228}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E51071B-230D-49DE-AB55-1825BEB99675}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5528F209-3875-4021-90A3-93CF06F16987}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0F2B1654-9B64-46E7-9A94-B1C4A249DC22}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AEBC6D71-44EB-4831-AC5A-C3F253888F99}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58436C50-242C-4896-A530-4D997B081B71}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1A07CDD-D581-46BA-88F4-F464633C5FFC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C535780A-9B5A-42CB-BC13-F4877EF3ECC7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7364E566-268E-4C85-BE24-0815FFF4D153}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4C631B8-1899-4D33-8C53-1DB53BCF41ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FF7EBF0-D17A-4A15-9C4E-B66CF7D68359}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{125A1962-CE78-4A2D-9D11-96620AF9C3AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D438AAE-868B-4564-AE17-487DDCC85318}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{53FC9867-42F7-454E-ACD9-E2E14DF8B46A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A983EE1-4007-4FF8-944E-498D758DD348}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1A0F6917-0DC3-4C31-BD53-1E34DDD48617}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{260562D1-76B1-4D7D-8EE6-9254E179FAEB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B9486C8-1213-4EEE-846C-BB752008D9E1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F34393A8-F57D-44B8-B49B-9ED344267BF9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E41F76E-C772-4301-880F-A34BBD0317EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8D516CB-8FFE-4BAD-87D5-611A8E98EDC9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3C99578-D542-4D4D-84F1-C7FA96860097}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C860D23A-497E-44AE-A1C7-273670D44A36}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13319,7 +13319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3550D98A-16BF-433E-A51C-D28331160196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19E548A-A71B-42AF-AB8A-B130E0A08F64}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14634,18 +14634,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAA7081C-5E57-49A9-9320-C892DD1B5E75}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E04DB660-4088-4120-A597-1F3ED1D1C30D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{208138E9-EEAE-4EA2-9578-4624D83EF93B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47B526B3-B02C-4111-BD12-7B6807B0E3A5}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8F2EC4AA-91F4-4952-BD73-E289DD26081E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8760F977-894A-49EF-8619-37C2133B4113}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B058AEA-FACF-4A0F-A2F7-71E107B45D87}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{94B0231C-77A0-4214-8AAA-425216607939}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3E95F0E-4F86-41EA-908E-2454B2D34CCB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E632226A-7E4B-495F-8F46-C0A42B5EB05E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02CA3DD4-1603-4FB9-B28E-C4FADA3C3E3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{106BE292-55EC-4ABF-A590-CA0937B93107}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7244AC9C-C310-4D27-AB28-03497CD48E52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5B1DEDB-5CCC-4B4B-86AC-E45EF1F847A4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FAB40289-26ED-4494-BAF5-90B66EA44180}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{148BA552-4F2B-42A8-B357-3E1BE2CF46E0}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1380E12C-A938-4699-8874-715759D93281}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5A0D5C5-166F-4461-9B7D-A8217445F5B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76CCD3FA-24D3-4E44-A21C-5B8C8B6DDF2E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B965F92-503A-49D8-B696-E5E5ADE44176}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5467BB7-2D5C-4C38-B09A-545EA43B04E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F4871BB-BCF6-4326-8A35-E296E0FAAB38}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2CCF5E2-BD88-4950-AA25-89A096B0B96F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{255210CA-D40A-48F9-80DB-588B74F703DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14658,7 +14658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9286DD98-3F71-453E-B902-C03085A161A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF991D44-AD5E-4424-9252-D963943A58D1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15965,18 +15965,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{945C8D1D-F5E7-4A70-AEFD-7408E92CB069}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2439654-D123-4029-BAB7-470153E447B4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE91D909-441F-4F79-8F39-BFDCC9321F03}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0DA729F7-7568-43DD-B2B1-66F9AFD0D478}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8CAD352D-DC10-40B4-9F8A-AFB92A4A829A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{825EDB01-0963-42A4-99F8-60E9C1AC0A23}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF1F3360-2AF0-43A1-B708-59243D04C00C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4899CF95-9BB9-4A33-9199-BAD4C0A1B0A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF184F27-FD88-40EB-8D34-104DFAAF3815}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72A6DD49-9199-4698-A2C3-CB7F570D2B1A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87AA78BC-ECDF-4A2B-B606-AD6D61F09148}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D01162F-3CAF-4AE4-BC42-F0E6307E24C9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8ADE2DB0-0F64-4ACC-A419-3DC14950D803}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C768163B-83D6-41EA-8652-B1D928AA1032}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E761645E-181C-4240-981C-EE34E5586083}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A18D47EC-1BCB-49A9-91C2-D1A89063427D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CDF8970C-F8CD-4E58-A81C-7C3816469B84}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF790488-335D-4052-9CA0-81BE9AA2A94F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BE10EB9-2B4D-4CD5-9F04-71641F786ED7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8FB9B27-C399-4F49-B8EA-2EF4B8AF59AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0BDDDC8-BC7D-41D2-93DB-E05DF11B91B9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD747235-F35F-4004-871A-F5E982033B94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56B12B46-5EDC-421D-A211-4FABAFFCF4F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C21A4567-56BD-4AD9-B20F-8D2B9E6B8FA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15989,7 +15989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5368217E-96C0-4B6C-A92C-7F85818D9212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26644498-6990-44D1-9782-8E8FE7CA1104}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17296,18 +17296,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53FAD41A-5717-40F7-8D0E-6A1964102CD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B50C5D0F-4112-4D8B-85C5-164D9B4D9555}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E72003D-C79F-4DE6-B831-B10324AD8CFF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{79F284DC-42BD-4A7B-9BC7-58C9B445FA09}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CE863470-2940-4E35-9FC6-BFBCAFED3392}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D8490A3-95DF-4072-AE48-675DEFEEFB16}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E01C3671-49A6-4371-92B8-59F7E775B4DB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A1129ECF-B921-47C3-8EB9-F4BCEA0687D1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18ACCE9A-ABFB-4C43-8305-29F17274A1FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36D4C937-0466-4CB3-875F-E6576F22D2B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5961B7B7-BE45-4957-9DE2-138146972AE7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD12CC99-F998-4B4D-85F7-3F2D5A8AD395}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A78D9848-1DB2-431B-95BD-9C86BC680779}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{139C384A-5784-487F-AC17-2B0444DC4B2E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B2A2E25F-44FA-4D6E-93CC-FF6AD2234369}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06CE3900-5C00-47F4-802D-509D48CCF784}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B09448E4-3F17-48CE-81E5-63B7D42B78D1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83DF75E0-823E-4213-BEEC-82B367ACA6ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC7C9F1F-F248-45EF-A712-88F669721D4A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF771E1E-D81C-4345-A436-CCB85FB1754F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D26791C-EF80-4ADB-B2CB-D4661809D2A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C242A9E-0899-43A5-B263-47D05C338B8F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0AFC4C3-7BD7-4A1B-90B8-2FCE3C099DE0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83F4342C-AD0C-4CF4-8F8F-210DA2ED738A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
